--- a/supplier-integration/flexible-supplier-scorecard-template.xlsx
+++ b/supplier-integration/flexible-supplier-scorecard-template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Supplier Scorecard</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Category Weight</t>
-  </si>
-  <si>
-    <t>Supplier Rating</t>
   </si>
   <si>
     <t>Innovation</t>
@@ -158,16 +152,25 @@
     <t>1. Enter supplier and buyer name. State buying category and date completed.</t>
   </si>
   <si>
-    <t>2. Make appropriate changes to major and sub scorecard attributes.</t>
-  </si>
-  <si>
-    <t>3. Change the weight for each major attribute to total 100%.</t>
-  </si>
-  <si>
     <t>4. Rate each scorecard criteria on a scale of 1 through 5.</t>
   </si>
   <si>
     <t>5. Add comments to reflect reasons for high or low ratings.</t>
+  </si>
+  <si>
+    <t>Area Weight</t>
+  </si>
+  <si>
+    <t>Area Rating</t>
+  </si>
+  <si>
+    <t>Wtd. Rating</t>
+  </si>
+  <si>
+    <t>2. Make appropriate changes to major area definitions and sub scorecard attributes.</t>
+  </si>
+  <si>
+    <t>3. Change the weight for each major area to be evaluated to total 100%.</t>
   </si>
 </sst>
 </file>
@@ -298,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -343,26 +346,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -394,19 +384,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,29 +408,755 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -814,10 +1527,10 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="25"/>
+      <c r="F1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="19"/>
       <c r="H1" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -825,38 +1538,35 @@
         <v>1</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="19" t="str">
-        <f>G23 &amp; " out of 15"</f>
-        <v>9 out of 15</v>
-      </c>
-      <c r="F3" s="18">
-        <f>SUM(G8:G22)/15</f>
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="18"/>
+      <c r="D3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="29">
+        <f>H23</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -866,304 +1576,340 @@
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="14">
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="17">
-        <f>SUM(D8:D10)*F8</f>
-        <v>1.8</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="20">
+        <f>SUM(D8:D10)/3</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="20">
+        <f>G8*F8</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>8</v>
+      <c r="B9" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="14">
         <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="14">
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="14">
         <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="16">
+        <v>19</v>
+      </c>
+      <c r="F11" s="26">
         <v>0.2</v>
       </c>
-      <c r="G11" s="17">
-        <f t="shared" ref="G11" si="0">SUM(D11:D13)*F11</f>
-        <v>1.8</v>
+      <c r="G11" s="20">
+        <f t="shared" ref="G11" si="0">SUM(D11:D13)/3</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="20">
+        <f>G11*F11</f>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>12</v>
+      <c r="B12" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="14">
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="14">
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="14">
         <v>3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="16">
+        <v>19</v>
+      </c>
+      <c r="F14" s="26">
         <v>0.2</v>
       </c>
-      <c r="G14" s="17">
-        <f t="shared" ref="G14" si="1">SUM(D14:D16)*F14</f>
-        <v>1.8</v>
+      <c r="G14" s="20">
+        <f t="shared" ref="G14" si="1">SUM(D14:D16)/3</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" ref="H14" si="2">G14*F14</f>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>13</v>
+      <c r="B15" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="14">
         <v>3</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="14">
         <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="14">
         <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="16">
+        <v>19</v>
+      </c>
+      <c r="F17" s="26">
         <v>0.2</v>
       </c>
-      <c r="G17" s="17">
-        <f t="shared" ref="G17" si="2">SUM(D17:D19)*F17</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>15</v>
+      <c r="G17" s="20">
+        <f t="shared" ref="G17" si="3">SUM(D17:D19)/3</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" ref="H17" si="4">G17*F17</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="14">
         <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14">
         <v>3</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="14">
         <v>3</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" ref="G20" si="3">SUM(D20:D22)*F20</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20" si="5">SUM(D20:D22)/3</f>
+        <v>3</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" ref="H20" si="6">G20*F20</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="14">
         <v>3</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
       <c r="C22" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="14">
         <v>3</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="21">
+      <c r="F23" s="22">
         <f>SUM(F8:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="23">
-        <f>SUM(G8:G22)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24">
+        <f>SUM(H8:H22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-    </row>
-    <row r="25" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1171,7 +1917,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1179,7 +1925,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1187,7 +1933,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1195,7 +1941,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1203,7 +1949,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1211,7 +1957,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1444,18 +2190,13 @@
       <c r="G60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="F3:G5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
+  <mergeCells count="27">
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F13"/>
@@ -1466,35 +2207,54 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="F3:G5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:G5">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G8:G22">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThanOrEqual">
       <formula>1.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="lessThan">
       <formula>1.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H25">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThanOrEqual">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G8 G11 G14:G22" formulaRange="1"/>
+    <ignoredError sqref="G8:G22" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1504,66 +2264,66 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+    </row>
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
